--- a/data/predictions/excel/draft_class_2018_predictions_ws_mean.xlsx
+++ b/data/predictions/excel/draft_class_2018_predictions_ws_mean.xlsx
@@ -1,55 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel Pedro\Documents\GitHub\nba_perf_predictor_tfm\data\predictions\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0374F7D9-35FD-466C-B5D9-C3C0B96BF80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -88,141 +49,141 @@
     <t>nba_gms_diff_to_actual</t>
   </si>
   <si>
+    <t>Marvin Bagley III</t>
+  </si>
+  <si>
+    <t>Wendell Carter Jr.</t>
+  </si>
+  <si>
     <t>Mo Bamba</t>
   </si>
   <si>
-    <t>Wendell Carter Jr.</t>
-  </si>
-  <si>
-    <t>Marvin Bagley III</t>
+    <t>Trae Young</t>
   </si>
   <si>
     <t>Mikal Bridges</t>
   </si>
   <si>
+    <t>Jevon Carter</t>
+  </si>
+  <si>
     <t>Omari Spellman</t>
   </si>
   <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>Jevon Carter</t>
-  </si>
-  <si>
     <t>Shai Gilgeous-Alexander</t>
   </si>
   <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
     <t>Zhaire Smith</t>
   </si>
   <si>
     <t>Robert Williams</t>
   </si>
   <si>
-    <t>Jalen Brunson</t>
+    <t>Gary Trent Jr.</t>
+  </si>
+  <si>
+    <t>Miles Bridges</t>
+  </si>
+  <si>
+    <t>Keita Bates-Diop</t>
   </si>
   <si>
     <t>Devonte' Graham</t>
   </si>
   <si>
-    <t>Miles Bridges</t>
+    <t>Moritz Wagner</t>
+  </si>
+  <si>
+    <t>Melvin Frazier</t>
+  </si>
+  <si>
+    <t>Collin Sexton</t>
+  </si>
+  <si>
+    <t>Grayson Allen</t>
+  </si>
+  <si>
+    <t>Vince Edwards</t>
+  </si>
+  <si>
+    <t>Jarred Vanderbilt</t>
+  </si>
+  <si>
+    <t>Ray Spalding</t>
   </si>
   <si>
     <t>Michael Porter Jr.</t>
   </si>
   <si>
-    <t>Collin Sexton</t>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Donte DiVincenzo</t>
   </si>
   <si>
     <t>Alize Johnson</t>
   </si>
   <si>
-    <t>Melvin Frazier</t>
-  </si>
-  <si>
-    <t>Gary Trent Jr.</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Jarred Vanderbilt</t>
+    <t>Svi Mykhailiuk</t>
+  </si>
+  <si>
+    <t>Bruce Brown</t>
   </si>
   <si>
     <t>Kevin Knox</t>
   </si>
   <si>
-    <t>Donte DiVincenzo</t>
+    <t>Kostas Antetokounmpo</t>
   </si>
   <si>
     <t>Devon Hall</t>
   </si>
   <si>
-    <t>Moritz Wagner</t>
-  </si>
-  <si>
-    <t>Keita Bates-Diop</t>
-  </si>
-  <si>
-    <t>Grayson Allen</t>
-  </si>
-  <si>
-    <t>Vince Edwards</t>
-  </si>
-  <si>
-    <t>Ray Spalding</t>
-  </si>
-  <si>
     <t>Khyri Thomas</t>
   </si>
   <si>
-    <t>Svi Mykhailiuk</t>
+    <t>Kevin Huerter</t>
+  </si>
+  <si>
+    <t>Landry Shamet</t>
   </si>
   <si>
     <t>Josh Okogie</t>
   </si>
   <si>
-    <t>Kostas Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Bruce Brown</t>
-  </si>
-  <si>
-    <t>Landry Shamet</t>
-  </si>
-  <si>
     <t>Lonnie Walker IV</t>
   </si>
   <si>
-    <t>Kevin Huerter</t>
+    <t>Hamidou Diallo</t>
+  </si>
+  <si>
+    <t>Jacob Evans</t>
   </si>
   <si>
     <t>Jerome Robinson</t>
   </si>
   <si>
-    <t>Hamidou Diallo</t>
-  </si>
-  <si>
     <t>Kevin Hervey</t>
   </si>
   <si>
     <t>Shake Milton</t>
   </si>
   <si>
-    <t>Jacob Evans</t>
+    <t>Duke</t>
   </si>
   <si>
     <t>Texas</t>
   </si>
   <si>
-    <t>Duke</t>
+    <t>Oklahoma</t>
   </si>
   <si>
     <t>Villanova</t>
   </si>
   <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
     <t>West Virginia</t>
   </si>
   <si>
@@ -235,55 +196,58 @@
     <t>Texas A&amp;M</t>
   </si>
   <si>
+    <t>Michigan State</t>
+  </si>
+  <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
     <t>Kansas</t>
   </si>
   <si>
-    <t>Michigan State</t>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Tulane</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>Louisville</t>
   </si>
   <si>
     <t>Missouri</t>
   </si>
   <si>
-    <t>Alabama</t>
-  </si>
-  <si>
     <t>Missouri State</t>
   </si>
   <si>
-    <t>Tulane</t>
+    <t>Miami (FL)</t>
+  </si>
+  <si>
+    <t>Dayton</t>
   </si>
   <si>
     <t>Virginia</t>
   </si>
   <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Ohio State</t>
-  </si>
-  <si>
-    <t>Purdue</t>
-  </si>
-  <si>
-    <t>Louisville</t>
-  </si>
-  <si>
     <t>Creighton</t>
   </si>
   <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Wichita State</t>
+  </si>
+  <si>
     <t>Georgia Tech</t>
   </si>
   <si>
-    <t>Dayton</t>
-  </si>
-  <si>
-    <t>Miami (FL)</t>
-  </si>
-  <si>
-    <t>Wichita State</t>
-  </si>
-  <si>
-    <t>Maryland</t>
+    <t>Cincinnati</t>
   </si>
   <si>
     <t>Boston College</t>
@@ -293,16 +257,13 @@
   </si>
   <si>
     <t>SMU</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,14 +326,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -419,7 +372,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -451,27 +404,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,24 +438,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -696,29 +613,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -753,7 +655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -764,36 +666,36 @@
         <v>2018</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>2.625</v>
+        <v>1.566666666666667</v>
       </c>
       <c r="F2">
-        <v>4.0375786435786418</v>
+        <v>4.067704657627679</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3">
         <v>2018</v>
@@ -805,7 +707,7 @@
         <v>2.816666666666666</v>
       </c>
       <c r="F3">
-        <v>3.9016897546897549</v>
+        <v>3.650467790339878</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -823,7 +725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -834,31 +736,31 @@
         <v>2018</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>1.5666666666666671</v>
+        <v>2.625</v>
       </c>
       <c r="F4">
-        <v>3.8293617123617159</v>
+        <v>3.174692471864287</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -869,136 +771,136 @@
         <v>2018</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>6.15</v>
+        <v>6.6</v>
       </c>
       <c r="F5">
-        <v>3.376170099261008</v>
+        <v>2.996007203245838</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5">
+        <v>-3</v>
+      </c>
+      <c r="K5">
         <v>-2</v>
       </c>
-      <c r="K5">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>2018</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>1.2</v>
+        <v>6.15</v>
       </c>
       <c r="F6">
-        <v>3.364156325156324</v>
+        <v>2.96044548071559</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c r="I6">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7">
         <v>2018</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E7">
-        <v>6.6</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="F7">
-        <v>3.127067821067822</v>
+        <v>2.919150231681356</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="J7">
-        <v>-5</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>2018</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>0.95000000000000007</v>
+        <v>1.2</v>
       </c>
       <c r="F8">
-        <v>2.8929168525077631</v>
+        <v>2.600978649762881</v>
       </c>
       <c r="G8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8">
         <v>7</v>
       </c>
       <c r="I8">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J8">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1015,7 +917,7 @@
         <v>4.375</v>
       </c>
       <c r="F9">
-        <v>2.830700970746423</v>
+        <v>2.479857791450604</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -1033,152 +935,152 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>2018</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>4.325</v>
       </c>
       <c r="F10">
-        <v>2.747417989417988</v>
+        <v>2.460690177960373</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
       <c r="I10">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J10">
-        <v>25</v>
+        <v>-4</v>
       </c>
       <c r="K10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11">
         <v>2018</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>4.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>2.71403968253968</v>
+        <v>2.39504714221828</v>
       </c>
       <c r="G11">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="J11">
-        <v>-7</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>-18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <v>2018</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>4.3250000000000002</v>
+        <v>4.6</v>
       </c>
       <c r="F12">
-        <v>2.3654740915650012</v>
+        <v>2.370149408470372</v>
       </c>
       <c r="G12">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H12">
         <v>11</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J12">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="K12">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C13">
         <v>2018</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E13">
-        <v>2.5249999999999999</v>
+        <v>1.883333333333334</v>
       </c>
       <c r="F13">
-        <v>2.272715881761338</v>
+        <v>2.155366391258056</v>
       </c>
       <c r="G13">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H13">
         <v>12</v>
       </c>
       <c r="I13">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K13">
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14">
         <v>2018</v>
@@ -1187,10 +1089,10 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>3.9750000000000001</v>
+        <v>3.975</v>
       </c>
       <c r="F14">
-        <v>2.2569012199921281</v>
+        <v>2.052509257263602</v>
       </c>
       <c r="G14">
         <v>10</v>
@@ -1208,117 +1110,117 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15">
         <v>2018</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E15">
-        <v>3.2000000000000011</v>
+        <v>0.7666666666666666</v>
       </c>
       <c r="F15">
-        <v>2.2074050024050011</v>
+        <v>1.927386701612095</v>
       </c>
       <c r="G15">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>14</v>
       </c>
       <c r="I15">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="J15">
-        <v>-6</v>
+        <v>13</v>
       </c>
       <c r="K15">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16">
         <v>2018</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E16">
-        <v>1.325</v>
+        <v>2.525</v>
       </c>
       <c r="F16">
-        <v>2.155524771524771</v>
+        <v>1.922624147920635</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H16">
         <v>15</v>
       </c>
       <c r="I16">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J16">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="K16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17">
         <v>2018</v>
       </c>
       <c r="D17">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E17">
-        <v>0.2142857142857143</v>
+        <v>1.014285714285714</v>
       </c>
       <c r="F17">
-        <v>2.1192407407407399</v>
+        <v>1.84046887769153</v>
       </c>
       <c r="G17">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H17">
         <v>16</v>
       </c>
       <c r="I17">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J17">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K17">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18">
         <v>2018</v>
@@ -1330,7 +1232,7 @@
         <v>-0.1</v>
       </c>
       <c r="F18">
-        <v>2.05921572871573</v>
+        <v>1.814301174300644</v>
       </c>
       <c r="G18">
         <v>27</v>
@@ -1348,112 +1250,112 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C19">
         <v>2018</v>
       </c>
       <c r="D19">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>1.883333333333334</v>
+        <v>1.325</v>
       </c>
       <c r="F19">
-        <v>2.059205868205868</v>
+        <v>1.805291099072765</v>
       </c>
       <c r="G19">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H19">
         <v>18</v>
       </c>
       <c r="I19">
+        <v>22</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
         <v>16</v>
       </c>
-      <c r="J19">
-        <v>-2</v>
-      </c>
-      <c r="K19">
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C20">
         <v>2018</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E20">
-        <v>3.2250000000000001</v>
+        <v>2.025</v>
       </c>
       <c r="F20">
-        <v>1.937874458874459</v>
+        <v>1.701767634643492</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H20">
         <v>19</v>
       </c>
       <c r="I20">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J20">
-        <v>-12</v>
+        <v>-4</v>
       </c>
       <c r="K20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C21">
         <v>2018</v>
       </c>
       <c r="D21">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E21">
-        <v>1.533333333333333</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1.871482443482442</v>
+        <v>1.680098199691165</v>
       </c>
       <c r="G21">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>20</v>
       </c>
       <c r="I21">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K21">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1464,241 +1366,241 @@
         <v>2018</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E22">
-        <v>-1.6666666666666659E-2</v>
+        <v>1.533333333333333</v>
       </c>
       <c r="F22">
-        <v>1.8151572871572881</v>
+        <v>1.659447091986453</v>
       </c>
       <c r="G22">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="H22">
         <v>21</v>
       </c>
       <c r="I22">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="J22">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="K22">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C23">
         <v>2018</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E23">
-        <v>1.65</v>
+        <v>0.07500000000000001</v>
       </c>
       <c r="F23">
-        <v>1.7442207573571209</v>
+        <v>1.57780559903604</v>
       </c>
       <c r="G23">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>22</v>
       </c>
       <c r="I23">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J23">
-        <v>-4</v>
+        <v>10</v>
       </c>
       <c r="K23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C24">
         <v>2018</v>
       </c>
       <c r="D24">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E24">
-        <v>-0.2</v>
+        <v>3.200000000000001</v>
       </c>
       <c r="F24">
-        <v>1.687142048187503</v>
+        <v>1.572392550411559</v>
       </c>
       <c r="G24">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="H24">
         <v>23</v>
       </c>
       <c r="I24">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="J24">
-        <v>17</v>
+        <v>-15</v>
       </c>
       <c r="K24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C25">
         <v>2018</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>1.014285714285714</v>
+        <v>3.225</v>
       </c>
       <c r="F25">
-        <v>1.6768213301849659</v>
+        <v>1.561822380548459</v>
       </c>
       <c r="G25">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H25">
         <v>24</v>
       </c>
       <c r="I25">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>-17</v>
       </c>
       <c r="K25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C26">
         <v>2018</v>
       </c>
       <c r="D26">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E26">
-        <v>0.76666666666666661</v>
+        <v>1.65</v>
       </c>
       <c r="F26">
-        <v>1.6696461366915909</v>
+        <v>1.54510874149153</v>
       </c>
       <c r="G26">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H26">
         <v>25</v>
       </c>
       <c r="I26">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="K26">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C27">
         <v>2018</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E27">
-        <v>2.0249999999999999</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="F27">
-        <v>1.617333726879183</v>
+        <v>1.510764954058452</v>
       </c>
       <c r="G27">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H27">
         <v>26</v>
       </c>
       <c r="I27">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J27">
-        <v>-11</v>
+        <v>4</v>
       </c>
       <c r="K27">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C28">
         <v>2018</v>
       </c>
       <c r="D28">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.3375</v>
       </c>
       <c r="F28">
-        <v>1.598100769600769</v>
+        <v>1.440832145306218</v>
       </c>
       <c r="G28">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H28">
         <v>27</v>
       </c>
       <c r="I28">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J28">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K28">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1709,101 +1611,101 @@
         <v>2018</v>
       </c>
       <c r="D29">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E29">
-        <v>7.5000000000000011E-2</v>
+        <v>3.2</v>
       </c>
       <c r="F29">
-        <v>1.529853054353054</v>
+        <v>1.427304609739968</v>
       </c>
       <c r="G29">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H29">
         <v>28</v>
       </c>
       <c r="I29">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="J29">
-        <v>4</v>
+        <v>-19</v>
       </c>
       <c r="K29">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C30">
         <v>2018</v>
       </c>
       <c r="D30">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="E30">
-        <v>0.16666666666666671</v>
+        <v>-0.01666666666666666</v>
       </c>
       <c r="F30">
-        <v>1.50250937950938</v>
+        <v>1.377212597097843</v>
       </c>
       <c r="G30">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="H30">
         <v>29</v>
       </c>
       <c r="I30">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>40</v>
       </c>
       <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31">
+        <v>2018</v>
+      </c>
+      <c r="D31">
         <v>60</v>
       </c>
-      <c r="C31">
-        <v>2018</v>
-      </c>
-      <c r="D31">
-        <v>47</v>
-      </c>
       <c r="E31">
-        <v>0.33750000000000002</v>
+        <v>-0.06666666666666667</v>
       </c>
       <c r="F31">
-        <v>1.488102934102935</v>
+        <v>1.367231889376728</v>
       </c>
       <c r="G31">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H31">
         <v>30</v>
       </c>
       <c r="I31">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K31">
         <v>-4</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -1814,31 +1716,31 @@
         <v>2018</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E32">
-        <v>1.35</v>
+        <v>-0.2</v>
       </c>
       <c r="F32">
-        <v>1.410703703703704</v>
+        <v>1.238521372578226</v>
       </c>
       <c r="G32">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="H32">
         <v>31</v>
       </c>
       <c r="I32">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J32">
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="K32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1849,31 +1751,31 @@
         <v>2018</v>
       </c>
       <c r="D33">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E33">
-        <v>-6.6666666666666666E-2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="F33">
-        <v>1.379558922558922</v>
+        <v>1.231673021432066</v>
       </c>
       <c r="G33">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H33">
         <v>32</v>
       </c>
       <c r="I33">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J33">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="K33">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -1884,31 +1786,31 @@
         <v>2018</v>
       </c>
       <c r="D34">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E34">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="F34">
-        <v>1.260297017797017</v>
+        <v>1.19832843800903</v>
       </c>
       <c r="G34">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H34">
         <v>33</v>
       </c>
       <c r="I34">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J34">
-        <v>-24</v>
+        <v>-20</v>
       </c>
       <c r="K34">
-        <v>-22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -1922,10 +1824,10 @@
         <v>26</v>
       </c>
       <c r="E35">
-        <v>2.3666666666666671</v>
+        <v>2.366666666666667</v>
       </c>
       <c r="F35">
-        <v>1.155226922908742</v>
+        <v>1.052476152475104</v>
       </c>
       <c r="G35">
         <v>20</v>
@@ -1943,147 +1845,147 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C36">
         <v>2018</v>
       </c>
       <c r="D36">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E36">
-        <v>0.47499999999999998</v>
+        <v>1.35</v>
       </c>
       <c r="F36">
-        <v>1.079034632034632</v>
+        <v>1.052249845683934</v>
       </c>
       <c r="G36">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H36">
         <v>35</v>
       </c>
       <c r="I36">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J36">
-        <v>-7</v>
+        <v>-14</v>
       </c>
       <c r="K36">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C37">
         <v>2018</v>
       </c>
       <c r="D37">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E37">
-        <v>2.375</v>
+        <v>0.475</v>
       </c>
       <c r="F37">
-        <v>1.039357383357383</v>
+        <v>1.017112835741619</v>
       </c>
       <c r="G37">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H37">
         <v>36</v>
       </c>
       <c r="I37">
+        <v>28</v>
+      </c>
+      <c r="J37">
+        <v>-8</v>
+      </c>
+      <c r="K37">
         <v>13</v>
       </c>
-      <c r="J37">
-        <v>-23</v>
-      </c>
-      <c r="K37">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C38">
         <v>2018</v>
       </c>
       <c r="D38">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E38">
-        <v>0.02</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="F38">
-        <v>0.96829738947920785</v>
+        <v>1.01393525794452</v>
       </c>
       <c r="G38">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>37</v>
       </c>
       <c r="I38">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J38">
-        <v>-4</v>
+        <v>-13</v>
       </c>
       <c r="K38">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C39">
         <v>2018</v>
       </c>
       <c r="D39">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E39">
-        <v>1.083333333333333</v>
+        <v>-0.275</v>
       </c>
       <c r="F39">
-        <v>0.95912169312169337</v>
+        <v>1.004378558389906</v>
       </c>
       <c r="G39">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H39">
         <v>38</v>
       </c>
       <c r="I39">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="J39">
-        <v>-14</v>
+        <v>3</v>
       </c>
       <c r="K39">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -2094,31 +1996,31 @@
         <v>2018</v>
       </c>
       <c r="D40">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E40">
-        <v>-0.1</v>
+        <v>0.02</v>
       </c>
       <c r="F40">
-        <v>0.87372438672438657</v>
+        <v>0.9792258272340517</v>
       </c>
       <c r="G40">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="H40">
         <v>39</v>
       </c>
       <c r="I40">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J40">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="K40">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -2129,31 +2031,31 @@
         <v>2018</v>
       </c>
       <c r="D41">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E41">
-        <v>1.7250000000000001</v>
+        <v>-0.1</v>
       </c>
       <c r="F41">
-        <v>0.84681962481962469</v>
+        <v>0.8993284261672361</v>
       </c>
       <c r="G41">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H41">
         <v>40</v>
       </c>
       <c r="I41">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J41">
-        <v>-23</v>
+        <v>-2</v>
       </c>
       <c r="K41">
-        <v>-21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -2164,38 +2066,28 @@
         <v>2018</v>
       </c>
       <c r="D42">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E42">
-        <v>-0.27500000000000002</v>
+        <v>1.725</v>
       </c>
       <c r="F42">
-        <v>0.8228703703703697</v>
+        <v>0.8107086486538083</v>
       </c>
       <c r="G42">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H42">
         <v>41</v>
       </c>
       <c r="I42">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="K42">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J43" cm="1">
-        <f t="array" ref="J43">AVERAGE(ABS(J2:J42))</f>
-        <v>9.3658536585365848</v>
-      </c>
-      <c r="K43" cm="1">
-        <f t="array" ref="K43">AVERAGE(ABS(K2:K42))</f>
-        <v>9.1707317073170724</v>
+        <v>-21</v>
       </c>
     </row>
   </sheetData>
